--- a/results/AdaBoostClassifier_ElasticNet.xlsx
+++ b/results/AdaBoostClassifier_ElasticNet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:O6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,42 +451,62 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Validation Score</t>
+          <t>CV Train F1</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>CV Test F1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Validation F1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Precision</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Precision</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Precision</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>CV Train Recall</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>CV Test Recall</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Validation Recall</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>Y Val (Validation)</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Y Pred (Validation)</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Seed</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train Mean</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>CV Train STD</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test Mean</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CV Test STD</t>
         </is>
       </c>
     </row>
@@ -495,9 +515,75 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7f84bc03fa00&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd58bd50190&gt;),
                 ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(l1_ratio=0.1,
+                 AdaBoostClassifier(estimator=LogisticRegression(class_weight='balanced',
+                                                                 l1_ratio=0.001,
+                                                                 max_iter=1000,
+                                                                 penalty='elasticnet',
+                                                                 random_state=42,
+                                                                 solver='saga'),
+                                    random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.6404761904761904</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd5871f3f40&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.001, 'model__estimator__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6212484922474958</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.55830444000444</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.5274447177748542</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.476986507936508</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.7882857142857144</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.7352000000000001</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.7727272727272727</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[1 0 0 1 1 1 0 0 1 0 0 1 0 1 0 0 0 1 1 1 1 1 1 1 1 1 1 0 1 0 1 0 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd5871f3400&gt;),
+                ('model',
+                 AdaBoostClassifier(estimator=LogisticRegression(class_weight='balanced',
+                                                                 l1_ratio=0.001,
                                                                  max_iter=1000,
                                                                  penalty='elasticnet',
                                                                  random_state=42,
@@ -505,49 +591,194 @@
                                     n_estimators=10, random_state=42))])</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.7058823529411764</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7f84bc0d03d0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.1, 'model__estimator__class_weight': None}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>42</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.6403210023268138</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.09259510926561515</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.5771007038712921</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.1212835179341145</v>
+      <c r="B3" t="n">
+        <v>0.5771428571428572</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd5871ef4c0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.001, 'model__estimator__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6125122361434392</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5775200355200356</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.6956521739130435</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.5124572955959892</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.4693650793650794</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.7272727272727273</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.7989499999999999</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.7747999999999999</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[0 1 1 1 1 0 1 1 1 1 0 0 1 0 1 1 1 1 1 0 1 0 1 1 1 1 0 0 0 0 0 0 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>69</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd5871ef850&gt;),
                 ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(l1_ratio=0.01,
+                 AdaBoostClassifier(estimator=LogisticRegression(class_weight='balanced',
+                                                                 l1_ratio=0.001,
+                                                                 max_iter=1000,
+                                                                 penalty='elasticnet',
+                                                                 random_state=42,
+                                                                 solver='saga'),
+                                    n_estimators=10, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.5916666666666666</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd5871efa90&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.001, 'model__estimator__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5640815353136724</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5371682428682429</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.5909090909090908</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.4661156668977891</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.4468198412698413</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.7222222222222222</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.7496842105263158</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.7095999999999999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 1 1 0 1 1 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 1 1 0 1 1 1 1 0 1 0 1 0]</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd5871ef2b0&gt;),
+                ('model',
+                 AdaBoostClassifier(estimator=LogisticRegression(class_weight='balanced',
+                                                                 l1_ratio=0.01,
+                                                                 max_iter=1000,
+                                                                 penalty='elasticnet',
+                                                                 random_state=42,
+                                                                 solver='saga'),
+                                    n_estimators=10, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.7291666666666666</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd5873893a0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.01, 'model__estimator__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5950071945652309</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.561809768009768</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.504587792732682</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.4673436507936508</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.7588571428571429</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.7448</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>[0 1 1 0 1 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 1 1 1 1 0 1 1 0 1 0 1 1 1 0 1]</t>
+        </is>
+      </c>
+      <c r="O5" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7fd587389130&gt;),
+                ('model',
+                 AdaBoostClassifier(estimator=LogisticRegression(class_weight='balanced',
+                                                                 l1_ratio=0.01,
                                                                  max_iter=1000,
                                                                  penalty='elasticnet',
                                                                  random_state=42,
@@ -555,146 +786,53 @@
                                     random_state=42))])</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.7102941176470587</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.01, 'model__estimator__class_weight': None}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.7368421052631579</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>69</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.6200692750874723</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.1276651807959677</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.5840976552858905</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1453575871855953</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1',
-                                                     random_state=42))),
-                ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(l1_ratio=0.001,
-                                                                 max_iter=1000,
-                                                                 penalty='elasticnet',
-                                                                 random_state=42,
-                                                                 solver='saga'),
-                                    random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.7186624649859944</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=LinearSVC(dual=False, penalty='l1', random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.001, 'model__estimator__class_weight': None}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.7777777777777777</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 0 1 1 1 1 0]</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>23</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.5565892096759216</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.1238284137601524</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.5276599165540342</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1306490699870561</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
-                ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(l1_ratio=0.001,
-                                                                 max_iter=1000,
-                                                                 penalty='elasticnet',
-                                                                 random_state=42,
-                                                                 solver='saga'),
-                                    random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.7839379084967321</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.001, 'model__estimator__class_weight': None}</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5882352941176471</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1]</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>99</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.6874354218330191</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.08586573297021793</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.6928471606824548</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.1079292773490324</v>
+      <c r="B6" t="n">
+        <v>0.6966666666666667</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd5872b4100&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.01, 'model__estimator__class_weight': 'balanced'}</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.6054126799965228</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5496056388056387</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.5714285714285713</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.5279129096310633</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.4566611111111111</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.5454545454545454</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.738</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.7208</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 1 1 1 0 0 0 0 1 0 1 1 0 1 1 1 1 1 1 1 1 0 1 1 0 0 1 1 0 1 0 0 0]</t>
+        </is>
+      </c>
+      <c r="O6" t="n">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/results/AdaBoostClassifier_ElasticNet.xlsx
+++ b/results/AdaBoostClassifier_ElasticNet.xlsx
@@ -515,10 +515,137 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd58bd50190&gt;),
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f693490&gt;),
                 ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(class_weight='balanced',
-                                                                 l1_ratio=0.001,
+                 AdaBoostClassifier(estimator=LogisticRegression(l1_ratio=0.1,
+                                                                 max_iter=1000,
+                                                                 penalty='elasticnet',
+                                                                 random_state=42,
+                                                                 solver='saga'),
+                                    n_estimators=10, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.7499999999999999</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f3f53a0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.1, 'model__estimator__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6132429943131357</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6213674436674436</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.5230699792289571</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.5349261904761904</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.7844680851063831</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.7806666666666666</v>
+      </c>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O2" t="n">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
+                ('model',
+                 AdaBoostClassifier(estimator=LogisticRegression(l1_ratio=0.001,
+                                                                 max_iter=1000,
+                                                                 penalty='elasticnet',
+                                                                 random_state=42,
+                                                                 solver='saga'),
+                                    n_estimators=10, random_state=42))])</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.7516666666666666</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.001, 'model__estimator__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6509459308029086</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.6469325230325229</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.5436050350838992</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.5613825396825396</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.8485957446808512</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.8210000000000001</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0]</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
+        </is>
+      </c>
+      <c r="O3" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
+                ('selector',
+                 &lt;__main__.NamedFeatureSelector object at 0x7faa9f3f5ee0&gt;),
+                ('model',
+                 AdaBoostClassifier(estimator=LogisticRegression(l1_ratio=0.001,
                                                                  max_iter=1000,
                                                                  penalty='elasticnet',
                                                                  random_state=42,
@@ -526,64 +653,61 @@
                                     random_state=42))])</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>0.6404761904761904</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd5871f3f40&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.001, 'model__estimator__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>0.6212484922474958</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.55830444000444</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.7727272727272727</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.5274447177748542</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.476986507936508</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.7727272727272727</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.7882857142857144</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.7352000000000001</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.7727272727272727</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>[1 0 1 1 1 1 0 1 0 1 0 1 0 1 1 0 0 1 1 1 1 0 1 1 0 1 1 1 1 0 0 0 0 1 0 1]</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>[1 0 0 1 1 1 0 0 1 0 0 1 0 1 0 0 0 1 1 1 1 1 1 1 1 1 1 0 1 0 1 0 0 1 1 1]</t>
-        </is>
-      </c>
-      <c r="O2" t="n">
-        <v>42</v>
+      <c r="B4" t="n">
+        <v>0.6725474525474524</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7faa9f35d640&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.001, 'model__estimator__class_weight': None}</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5510004839478133</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.5177727716727718</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.6857142857142857</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.4564908984411862</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.4284373015873015</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0.7285333333333333</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.7143999999999999</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.631578947368421</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1]</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>[1 1 1 0 1 1 0 1 1 0 1 1 0 1 1 0 0 1 0 1 1 0 1 1]</t>
+        </is>
+      </c>
+      <c r="O4" t="n">
+        <v>23</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd5871f3400&gt;),
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Pipeline(steps=[('scaler', MinMaxScaler()), ('selector', None),
                 ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(class_weight='balanced',
-                                                                 l1_ratio=0.001,
+                 AdaBoostClassifier(estimator=LogisticRegression(l1_ratio=0.95,
                                                                  max_iter=1000,
                                                                  penalty='elasticnet',
                                                                  random_state=42,
@@ -591,179 +715,49 @@
                                     n_estimators=10, random_state=42))])</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>0.5771428571428572</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd5871ef4c0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.001, 'model__estimator__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6125122361434392</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5775200355200356</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.6956521739130435</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.5124572955959892</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.4693650793650794</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.7272727272727273</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.7989499999999999</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.7747999999999999</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>[1 1 0 1 0 0 1 0 1 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 1 1 0 1 1 0 1 1 1]</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>[0 1 1 1 1 0 1 1 1 1 0 0 1 0 1 1 1 1 1 0 1 0 1 1 1 1 0 0 0 0 0 0 0 1 1 1]</t>
-        </is>
-      </c>
-      <c r="O3" t="n">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd5871ef850&gt;),
-                ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(class_weight='balanced',
-                                                                 l1_ratio=0.001,
-                                                                 max_iter=1000,
-                                                                 penalty='elasticnet',
-                                                                 random_state=42,
-                                                                 solver='saga'),
-                                    n_estimators=10, random_state=42))])</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>0.5916666666666666</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd5871efa90&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.001, 'model__estimator__class_weight': 'balanced'}</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5640815353136724</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.5371682428682429</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.5909090909090908</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.4661156668977891</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.4468198412698413</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.7222222222222222</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.7496842105263158</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.7095999999999999</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>[0 1 0 0 1 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 0 1 1 1 0 1]</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>[0 1 1 0 1 1 0 1 1 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 1 1 0 1 1 1 1 0 1 0 1 0]</t>
-        </is>
-      </c>
-      <c r="O4" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Pipeline(steps=[('scaler', MinMaxScaler()),
-                ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd5871ef2b0&gt;),
-                ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(class_weight='balanced',
-                                                                 l1_ratio=0.01,
-                                                                 max_iter=1000,
-                                                                 penalty='elasticnet',
-                                                                 random_state=42,
-                                                                 solver='saga'),
-                                    n_estimators=10, random_state=42))])</t>
-        </is>
-      </c>
       <c r="B5" t="n">
-        <v>0.7291666666666666</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd5873893a0&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.01, 'model__estimator__class_weight': 'balanced'}</t>
+          <t>{'selector': None, 'scaler': MinMaxScaler(), 'model__n_estimators': 10, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.95, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0.5950071945652309</v>
+        <v>0.5812061518634146</v>
       </c>
       <c r="E5" t="n">
-        <v>0.561809768009768</v>
+        <v>0.5718087135087134</v>
       </c>
       <c r="F5" t="n">
-        <v>0.55</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="G5" t="n">
-        <v>0.504587792732682</v>
+        <v>0.4950165522180262</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4673436507936508</v>
+        <v>0.4900587301587301</v>
       </c>
       <c r="I5" t="n">
-        <v>0.6111111111111112</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7588571428571429</v>
+        <v>0.7360408163265306</v>
       </c>
       <c r="K5" t="n">
-        <v>0.7448</v>
+        <v>0.7256666666666667</v>
       </c>
       <c r="L5" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1 1 1 0 0 1 0 1 1 1 1 1 0]</t>
+          <t>[0 1 1 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>[0 1 1 0 1 0 0 1 0 0 1 1 0 0 1 0 0 0 0 0 0 1 1 1 1 0 1 1 0 1 0 1 1 1 0 1]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O5" t="n">
@@ -775,10 +769,9 @@
         <is>
           <t>Pipeline(steps=[('scaler', MinMaxScaler()),
                 ('selector',
-                 &lt;__main__.NamedFeatureSelector object at 0x7fd587389130&gt;),
+                 SelectFromModel(estimator=ExtraTreesClassifier(random_state=42))),
                 ('model',
-                 AdaBoostClassifier(estimator=LogisticRegression(class_weight='balanced',
-                                                                 l1_ratio=0.01,
+                 AdaBoostClassifier(estimator=LogisticRegression(l1_ratio=0.01,
                                                                  max_iter=1000,
                                                                  penalty='elasticnet',
                                                                  random_state=42,
@@ -787,48 +780,48 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6966666666666667</v>
+        <v>0.7583333333333333</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'selector': &lt;__main__.NamedFeatureSelector object at 0x7fd5872b4100&gt;, 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.01, 'model__estimator__class_weight': 'balanced'}</t>
+          <t>{'selector': SelectFromModel(estimator=ExtraTreesClassifier(random_state=42)), 'scaler': MinMaxScaler(), 'model__n_estimators': 50, 'model__estimator__solver': 'saga', 'model__estimator__penalty': 'elasticnet', 'model__estimator__l1_ratio': 0.01, 'model__estimator__class_weight': None}</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.6054126799965228</v>
+        <v>0.635257532565256</v>
       </c>
       <c r="E6" t="n">
-        <v>0.5496056388056387</v>
+        <v>0.5934148518148517</v>
       </c>
       <c r="F6" t="n">
-        <v>0.5714285714285713</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5279129096310633</v>
+        <v>0.554679436699299</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4566611111111111</v>
+        <v>0.5157920634920634</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5454545454545454</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="J6" t="n">
-        <v>0.738</v>
+        <v>0.7693846153846153</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7208</v>
+        <v>0.7396666666666667</v>
       </c>
       <c r="L6" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1 1 0 1 0 1 1 1 1 1 1 1 0]</t>
+          <t>[1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 1]</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>[1 1 1 0 1 1 1 0 0 0 0 1 0 1 1 0 1 1 1 1 1 1 1 1 0 1 1 0 0 1 1 0 1 0 0 0]</t>
+          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1]</t>
         </is>
       </c>
       <c r="O6" t="n">
